--- a/ouput_excel.xlsx
+++ b/ouput_excel.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="honda bikes under 4Lac" r:id="rId3" sheetId="1"/>
+    <sheet name="popular car models" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Bike Name</t>
   </si>
@@ -81,6 +82,36 @@
   </si>
   <si>
     <t>Honda Rebel 300</t>
+  </si>
+  <si>
+    <t>Popular car models</t>
+  </si>
+  <si>
+    <t>Maruti 800</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire</t>
+  </si>
+  <si>
+    <t>Maruti Swift</t>
+  </si>
+  <si>
+    <t>Hyundai I10</t>
+  </si>
+  <si>
+    <t>Hyundai Santro Xing</t>
+  </si>
+  <si>
+    <t>Honda City</t>
+  </si>
+  <si>
+    <t>Toyota Innova</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500</t>
   </si>
 </sst>
 </file>
@@ -233,4 +264,67 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>